--- a/medicine/Enfance/G._P/G._P..xlsx
+++ b/medicine/Enfance/G._P/G._P..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">G. P. (pour Générale de Publicité) est l'un des principaux éditeurs français pour les ouvrages de jeunesse, de la libération en 1944 aux années 1980.
 À sa création, peu après la libération de Paris, est éditée la première BD où la Shoah est évoquée. Les différentes collections Rouge et Or en font sa popularité.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée en 1944 par Victor Dancette (1900-1975), la société Générale de Publicité (aussi nommée G. P. ou Éditions G. P.) est à l'origine une agence de communication.
 Quelque temps après la Libération, Dancette écrit, avec Jacques Zimmermann, le scénario de la BD La bête est morte !. Les planches sont réalisées par leur ami Edmond-François Calvo. Calvo étant très influencé par les productions de Disney, les loups de l'édition originale ressemblent trop à celui de Tex Avery. Un arrangement sera trouvé pour les éditions suivantes.
@@ -555,7 +569,9 @@
           <t>Liste complète des collections parues</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pingouin
@@ -598,7 +614,9 @@
           <t>Principaux auteurs publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Guy Sabran
 Paul Berna
@@ -632,7 +650,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Étude très complète sur G. P. parue dans les Cahiers Robinson n° 21, 2007.
  Portail des entreprises   Portail de la littérature d’enfance et de jeunesse   Portail de l’édition                   </t>
